--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3a-Nrp2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3a-Nrp2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H2">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I2">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J2">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>54.6972304867492</v>
+        <v>55.56529466666667</v>
       </c>
       <c r="N2">
-        <v>54.6972304867492</v>
+        <v>166.695884</v>
       </c>
       <c r="O2">
-        <v>0.4259172202448373</v>
+        <v>0.424029640296873</v>
       </c>
       <c r="P2">
-        <v>0.4259172202448373</v>
+        <v>0.4240296402968731</v>
       </c>
       <c r="Q2">
-        <v>56.18538325651205</v>
+        <v>63.33923130406622</v>
       </c>
       <c r="R2">
-        <v>56.18538325651205</v>
+        <v>570.053081736596</v>
       </c>
       <c r="S2">
-        <v>0.09114878223724118</v>
+        <v>0.09237649601211102</v>
       </c>
       <c r="T2">
-        <v>0.09114878223724118</v>
+        <v>0.09237649601211102</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H3">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I3">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J3">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.8039332891305</v>
+        <v>10.84181733333333</v>
       </c>
       <c r="N3">
-        <v>10.8039332891305</v>
+        <v>32.525452</v>
       </c>
       <c r="O3">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526086</v>
       </c>
       <c r="P3">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526089</v>
       </c>
       <c r="Q3">
-        <v>11.09787693317748</v>
+        <v>12.35865624310978</v>
       </c>
       <c r="R3">
-        <v>11.09787693317748</v>
+        <v>111.227906187988</v>
       </c>
       <c r="S3">
-        <v>0.01800393464007658</v>
+        <v>0.01802436397871773</v>
       </c>
       <c r="T3">
-        <v>0.01800393464007658</v>
+        <v>0.01802436397871773</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H4">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I4">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J4">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.8695375459458</v>
+        <v>40.13853466666666</v>
       </c>
       <c r="N4">
-        <v>39.8695375459458</v>
+        <v>120.415604</v>
       </c>
       <c r="O4">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071534</v>
       </c>
       <c r="P4">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071535</v>
       </c>
       <c r="Q4">
-        <v>40.95427185881996</v>
+        <v>45.75416987725288</v>
       </c>
       <c r="R4">
-        <v>40.95427185881996</v>
+        <v>411.787528895276</v>
       </c>
       <c r="S4">
-        <v>0.06643955760347506</v>
+        <v>0.0667297313873805</v>
       </c>
       <c r="T4">
-        <v>0.06643955760347506</v>
+        <v>0.0667297313873805</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H5">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I5">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J5">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.8993781078458</v>
+        <v>21.88776266666666</v>
       </c>
       <c r="N5">
-        <v>20.8993781078458</v>
+        <v>65.66328799999999</v>
       </c>
       <c r="O5">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="P5">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="Q5">
-        <v>21.46798948251213</v>
+        <v>24.94999928623022</v>
       </c>
       <c r="R5">
-        <v>21.46798948251213</v>
+        <v>224.549993576072</v>
       </c>
       <c r="S5">
-        <v>0.03482722702947987</v>
+        <v>0.03638808779510175</v>
       </c>
       <c r="T5">
-        <v>0.03482722702947987</v>
+        <v>0.03638808779510175</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H6">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I6">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J6">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.1521300675325</v>
+        <v>2.607653333333333</v>
       </c>
       <c r="N6">
-        <v>2.1521300675325</v>
+        <v>7.82296</v>
       </c>
       <c r="O6">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="P6">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="Q6">
-        <v>2.210683275663655</v>
+        <v>2.972480549804444</v>
       </c>
       <c r="R6">
-        <v>2.210683275663655</v>
+        <v>26.75232494824</v>
       </c>
       <c r="S6">
-        <v>0.003586361377460622</v>
+        <v>0.004335185824041727</v>
       </c>
       <c r="T6">
-        <v>0.003586361377460622</v>
+        <v>0.004335185824041726</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.77594925762357</v>
+        <v>1.902924</v>
       </c>
       <c r="H7">
-        <v>1.77594925762357</v>
+        <v>5.708772</v>
       </c>
       <c r="I7">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J7">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.6972304867492</v>
+        <v>55.56529466666667</v>
       </c>
       <c r="N7">
-        <v>54.6972304867492</v>
+        <v>166.695884</v>
       </c>
       <c r="O7">
-        <v>0.4259172202448373</v>
+        <v>0.424029640296873</v>
       </c>
       <c r="P7">
-        <v>0.4259172202448373</v>
+        <v>0.4240296402968731</v>
       </c>
       <c r="Q7">
-        <v>97.13950587700754</v>
+        <v>105.736532788272</v>
       </c>
       <c r="R7">
-        <v>97.13950587700754</v>
+        <v>951.628795094448</v>
       </c>
       <c r="S7">
-        <v>0.1575880977334145</v>
+        <v>0.1542104348024066</v>
       </c>
       <c r="T7">
-        <v>0.1575880977334145</v>
+        <v>0.1542104348024066</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.77594925762357</v>
+        <v>1.902924</v>
       </c>
       <c r="H8">
-        <v>1.77594925762357</v>
+        <v>5.708772</v>
       </c>
       <c r="I8">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J8">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.8039332891305</v>
+        <v>10.84181733333333</v>
       </c>
       <c r="N8">
-        <v>10.8039332891305</v>
+        <v>32.525452</v>
       </c>
       <c r="O8">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526086</v>
       </c>
       <c r="P8">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526089</v>
       </c>
       <c r="Q8">
-        <v>19.18723730424589</v>
+        <v>20.631154407216</v>
       </c>
       <c r="R8">
-        <v>19.18723730424589</v>
+        <v>185.680389664944</v>
       </c>
       <c r="S8">
-        <v>0.03112719382538478</v>
+        <v>0.03008930979402469</v>
       </c>
       <c r="T8">
-        <v>0.03112719382538478</v>
+        <v>0.0300893097940247</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.77594925762357</v>
+        <v>1.902924</v>
       </c>
       <c r="H9">
-        <v>1.77594925762357</v>
+        <v>5.708772</v>
       </c>
       <c r="I9">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J9">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.8695375459458</v>
+        <v>40.13853466666666</v>
       </c>
       <c r="N9">
-        <v>39.8695375459458</v>
+        <v>120.415604</v>
       </c>
       <c r="O9">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071534</v>
       </c>
       <c r="P9">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071535</v>
       </c>
       <c r="Q9">
-        <v>70.8062756065175</v>
+        <v>76.38058094203198</v>
       </c>
       <c r="R9">
-        <v>70.8062756065175</v>
+        <v>687.425228478288</v>
       </c>
       <c r="S9">
-        <v>0.1148680568186837</v>
+        <v>0.1113965276421247</v>
       </c>
       <c r="T9">
-        <v>0.1148680568186837</v>
+        <v>0.1113965276421247</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.77594925762357</v>
+        <v>1.902924</v>
       </c>
       <c r="H10">
-        <v>1.77594925762357</v>
+        <v>5.708772</v>
       </c>
       <c r="I10">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J10">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.8993781078458</v>
+        <v>21.88776266666666</v>
       </c>
       <c r="N10">
-        <v>20.8993781078458</v>
+        <v>65.66328799999999</v>
       </c>
       <c r="O10">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="P10">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="Q10">
-        <v>37.11623503542304</v>
+        <v>41.65074888470399</v>
       </c>
       <c r="R10">
-        <v>37.11623503542304</v>
+        <v>374.856739962336</v>
       </c>
       <c r="S10">
-        <v>0.06021316272356165</v>
+        <v>0.06074513629284119</v>
       </c>
       <c r="T10">
-        <v>0.06021316272356165</v>
+        <v>0.06074513629284119</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.77594925762357</v>
+        <v>1.902924</v>
       </c>
       <c r="H11">
-        <v>1.77594925762357</v>
+        <v>5.708772</v>
       </c>
       <c r="I11">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J11">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.1521300675325</v>
+        <v>2.607653333333333</v>
       </c>
       <c r="N11">
-        <v>2.1521300675325</v>
+        <v>7.82296</v>
       </c>
       <c r="O11">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="P11">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="Q11">
-        <v>3.822073795743707</v>
+        <v>4.962166111679999</v>
       </c>
       <c r="R11">
-        <v>3.822073795743707</v>
+        <v>44.65949500512</v>
       </c>
       <c r="S11">
-        <v>0.006200498277504071</v>
+        <v>0.007237023699048471</v>
       </c>
       <c r="T11">
-        <v>0.006200498277504071</v>
+        <v>0.007237023699048469</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.99674530184207</v>
+        <v>2.189605333333333</v>
       </c>
       <c r="H12">
-        <v>1.99674530184207</v>
+        <v>6.568816</v>
       </c>
       <c r="I12">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722017</v>
       </c>
       <c r="J12">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722016</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>54.6972304867492</v>
+        <v>55.56529466666667</v>
       </c>
       <c r="N12">
-        <v>54.6972304867492</v>
+        <v>166.695884</v>
       </c>
       <c r="O12">
-        <v>0.4259172202448373</v>
+        <v>0.424029640296873</v>
       </c>
       <c r="P12">
-        <v>0.4259172202448373</v>
+        <v>0.4240296402968731</v>
       </c>
       <c r="Q12">
-        <v>109.2164379981893</v>
+        <v>121.6660655503715</v>
       </c>
       <c r="R12">
-        <v>109.2164379981893</v>
+        <v>1094.994589953344</v>
       </c>
       <c r="S12">
-        <v>0.1771803402741816</v>
+        <v>0.1774427094823554</v>
       </c>
       <c r="T12">
-        <v>0.1771803402741816</v>
+        <v>0.1774427094823555</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.99674530184207</v>
+        <v>2.189605333333333</v>
       </c>
       <c r="H13">
-        <v>1.99674530184207</v>
+        <v>6.568816</v>
       </c>
       <c r="I13">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722017</v>
       </c>
       <c r="J13">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722016</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.8039332891305</v>
+        <v>10.84181733333333</v>
       </c>
       <c r="N13">
-        <v>10.8039332891305</v>
+        <v>32.525452</v>
       </c>
       <c r="O13">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526086</v>
       </c>
       <c r="P13">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526089</v>
       </c>
       <c r="Q13">
-        <v>21.57270303648647</v>
+        <v>23.73930105609244</v>
       </c>
       <c r="R13">
-        <v>21.57270303648647</v>
+        <v>213.653709504832</v>
       </c>
       <c r="S13">
-        <v>0.0349971024023134</v>
+        <v>0.03462235654251845</v>
       </c>
       <c r="T13">
-        <v>0.0349971024023134</v>
+        <v>0.03462235654251846</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.99674530184207</v>
+        <v>2.189605333333333</v>
       </c>
       <c r="H14">
-        <v>1.99674530184207</v>
+        <v>6.568816</v>
       </c>
       <c r="I14">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722017</v>
       </c>
       <c r="J14">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722016</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.8695375459458</v>
+        <v>40.13853466666666</v>
       </c>
       <c r="N14">
-        <v>39.8695375459458</v>
+        <v>120.415604</v>
       </c>
       <c r="O14">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071534</v>
       </c>
       <c r="P14">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071535</v>
       </c>
       <c r="Q14">
-        <v>79.6093117814833</v>
+        <v>87.88754957831821</v>
       </c>
       <c r="R14">
-        <v>79.6093117814833</v>
+        <v>790.987946204864</v>
       </c>
       <c r="S14">
-        <v>0.1291491025432497</v>
+        <v>0.1281787559776482</v>
       </c>
       <c r="T14">
-        <v>0.1291491025432497</v>
+        <v>0.1281787559776482</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.99674530184207</v>
+        <v>2.189605333333333</v>
       </c>
       <c r="H15">
-        <v>1.99674530184207</v>
+        <v>6.568816</v>
       </c>
       <c r="I15">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722017</v>
       </c>
       <c r="J15">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722016</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.8993781078458</v>
+        <v>21.88776266666666</v>
       </c>
       <c r="N15">
-        <v>20.8993781078458</v>
+        <v>65.66328799999999</v>
       </c>
       <c r="O15">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="P15">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="Q15">
-        <v>41.73073504826211</v>
+        <v>47.92556186966755</v>
       </c>
       <c r="R15">
-        <v>41.73073504826211</v>
+        <v>431.330056827008</v>
       </c>
       <c r="S15">
-        <v>0.06769920326338952</v>
+        <v>0.06989657726786005</v>
       </c>
       <c r="T15">
-        <v>0.06769920326338952</v>
+        <v>0.06989657726786005</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.99674530184207</v>
+        <v>2.189605333333333</v>
       </c>
       <c r="H16">
-        <v>1.99674530184207</v>
+        <v>6.568816</v>
       </c>
       <c r="I16">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722017</v>
       </c>
       <c r="J16">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722016</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.1521300675325</v>
+        <v>2.607653333333333</v>
       </c>
       <c r="N16">
-        <v>2.1521300675325</v>
+        <v>7.82296</v>
       </c>
       <c r="O16">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="P16">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="Q16">
-        <v>4.297255601298576</v>
+        <v>5.709731646151111</v>
       </c>
       <c r="R16">
-        <v>4.297255601298576</v>
+        <v>51.38758481536</v>
       </c>
       <c r="S16">
-        <v>0.006971379250583485</v>
+        <v>0.008327303501819443</v>
       </c>
       <c r="T16">
-        <v>0.006971379250583485</v>
+        <v>0.008327303501819441</v>
       </c>
     </row>
   </sheetData>
